--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL485_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL485_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GI05MOAS-GL485\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10788" yWindow="1368" windowWidth="25380" windowHeight="10848" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="10785" yWindow="1365" windowWidth="25380" windowHeight="10845" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Ref Des</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>N00534</t>
+  </si>
+  <si>
+    <t>OL000120</t>
   </si>
 </sst>
 </file>
@@ -838,17 +841,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="9" width="21" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
@@ -886,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -944,23 +947,23 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -986,7 +989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="17"/>
@@ -1118,7 +1121,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1148,7 +1151,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="17"/>
@@ -1164,7 +1167,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1194,7 +1197,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
@@ -1210,7 +1213,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1223,7 +1226,9 @@
       <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" s="13">
         <v>485</v>
       </c>
@@ -1238,7 +1243,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL485_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL485_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="1365" windowWidth="25380" windowHeight="10845" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="10780" yWindow="1360" windowWidth="25380" windowHeight="10840" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$79</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$379</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -591,7 +586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,7 +621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,17 +836,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="9" width="21" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
@@ -889,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -947,23 +942,23 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -989,7 +984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1047,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -1070,13 +1065,13 @@
         <v>19</v>
       </c>
       <c r="H4" s="22">
-        <v>1.1299999999999999</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="1" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1105,7 +1100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="1" customFormat="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="17"/>
@@ -1121,7 +1116,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1151,7 +1146,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="1" customFormat="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="17"/>
@@ -1167,7 +1162,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="1" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1197,7 +1192,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="1" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
@@ -1213,7 +1208,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="1" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +1238,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="1" customFormat="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL485_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL485_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="1360" windowWidth="25380" windowHeight="10840" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="10780" yWindow="1360" windowWidth="25380" windowHeight="10840" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="J2" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>25</v>
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL485_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL485_00001.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Ref Des</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>OL000120</t>
+  </si>
+  <si>
+    <t>glider lost</t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -903,7 +906,9 @@
       <c r="F2" s="7">
         <v>0.44166666666666665</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6">
+        <v>42328</v>
+      </c>
       <c r="H2" s="20" t="s">
         <v>22</v>
       </c>
@@ -916,7 +921,9 @@
       <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="M2" s="19">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>59.858199999999997</v>
